--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,367 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11.07313</v>
-      </c>
-      <c r="C2" t="n">
-        <v>44.39293</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.215820000000001</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>6.99287</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32.99591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>55.3585</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25.16485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.36431</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32.33913</v>
-      </c>
-      <c r="L2" t="n">
-        <v>958.15871</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.88408</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.17029</v>
-      </c>
-      <c r="O2" t="n">
-        <v>17.8558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26.56973</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10.60846</v>
-      </c>
-      <c r="S2" t="n">
-        <v>8.19065</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>14.2085</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.56057</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1943</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>105.16712</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>91.34208</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>46.38897</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.83273</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11.08049</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21.9905</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>59.36448</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.28552</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>24.36403</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27.9013</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>59.21384</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.54423</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>37.28991</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>25.38659</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>54.03161</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>50.63348</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>13.5994</v>
-      </c>
-      <c r="C3" t="n">
-        <v>62.30123</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.473</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>18.44006</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.44958</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.18986</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32.15939</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19.79516</v>
-      </c>
-      <c r="K3" t="n">
-        <v>56.77886</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1467.52631</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.63478</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21.17998</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20.80149</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27.64409</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.23116</v>
-      </c>
-      <c r="R3" t="n">
-        <v>25.06418</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10.42601</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>25.93205</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.64936</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.83557</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.10472</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>131.66955</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>145.74356</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>61.16294</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23.04143</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>34.45541</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>94.50323</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>87.01259</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.5594</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>47.6423</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>61.29764</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>106.31991</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.1704</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>45.41352</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38.13185</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>79.2825</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>59.43015</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.41645</v>
-      </c>
-      <c r="C4" t="n">
-        <v>65.20549</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.82076</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>18.98898</v>
-      </c>
-      <c r="G4" t="n">
-        <v>76.27527000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32.40101</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32.38356</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20.63635</v>
-      </c>
-      <c r="K4" t="n">
-        <v>73.92238999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1548.98219</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.58944</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24.47751</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34.29171</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37.28992</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>25.12258</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12.99086</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>16.83694</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.50186</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.10661</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>128.95668</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>184.92909</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>71.76640999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>28.48966</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>34.89227</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>69.42108</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>86.20878</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.5894</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>47.42128</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>62.84173</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>106.90961</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.13176</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>39.234</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34.92828</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>84.92832</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>56.02615</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
